--- a/outputs/Lincoln4.xlsx
+++ b/outputs/Lincoln4.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 3. Attitude Towards Risk, 4. Computer Self-Efficacy, 5. Learning Style
-Why: ABI is risk-averse and has low confidence in doing unfamiliar computing tasks. The image does not explicitly provide information or guidance about filing an issue, which ABI might need. Without a clear indication, ABI may not consider this as a step toward achieving the overall use case, as it doesn't align with her preference for process-oriented and comprehensive learning styles.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page shown is a project details page with various files and information about the project. There is no clear indication or direct link related to filing an issue. Given Abi's preference for familiar methods and comprehensive information processing style, she might not immediately think of this page as a step toward finding information about filing an issue. Additionally, due to her low computer self-efficacy, she might not feel confident navigating through the page to find the relevant information.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 3. Attitude Towards Risk, 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page does not provide explicit instructions or guidance on filing an issue. ABI, who has low computer self-efficacy and prefers clear, process-oriented instructions, may not feel confident in clicking the "Issues" button without knowing what to expect. This lack of clarity and the risk associated with navigating unfamiliar territory may deter ABI from taking this action.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page does not provide explicit instructions or clear indications that clicking the "Issues" button on the side will lead to filing an issue. Abi prefers comprehensive information and step-by-step guidance, which is not present here. Additionally, due to her low computer self-efficacy, she might not feel confident in clicking the "Issues" button without knowing exactly what it will do. Abi's process-oriented learning style also means she would prefer more explicit guidance before taking an action.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the page ABI lands on after clicking the "Issues" button provides a list of issues, it does not explicitly guide ABI on how to file a new issue. ABI prefers comprehensive information and clear, step-by-step instructions. Simply landing on a list of issues without any clear indication of how to proceed to file a new issue may not make ABI feel confident that she is making progress toward her goal. Additionally, the lack of clear instructions could overwhelm ABI, considering her lower computer self-efficacy.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
+Why: After clicking the "Issues" button, Abi lands on a page listing existing issues. While this page is relevant, it does not provide explicit instructions or clear guidance on how to file a new issue. Abi prefers comprehensive information and step-by-step processes, which are not provided here. Additionally, due to her low computer self-efficacy, she might not feel confident in figuring out the next steps on her own. The page does not clearly indicate that she is making progress toward her goal of filing an issue, nor does it provide all the information she needs to complete the task.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The green "New issue" button is clearly labeled and visibly distinct, making it straightforward for ABI to identify. Given ABI's comprehensive information processing style, the clear labeling provides enough information for her to understand that clicking this button is the next step toward filing a new issue. The page layout is not overwhelming and focuses on relevant actions, aiding ABI in feeling confident to proceed.</t>
+Why: The green "New Issue" button is prominently displayed and clearly labeled, making it intuitive for Abi to understand that clicking it will allow her to file a new issue. The page is straightforward and does not overwhelm with too much information, aligning with Abi's comprehensive information processing style. Additionally, the clear labeling supports her process-oriented learning style, making it likely that she will know what to do at this step and feel confident in taking the action.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "New Issue" page is well-structured and clearly labeled, aligning with ABI's preference for comprehensive information and process-oriented learning. The fields for title, description, assignee, milestone, and labels are clearly indicated, providing ABI with a step-by-step process for filing an issue. Additionally, the presence of a "Create issue" button at the bottom reinforces that ABI is making progress toward her goal. The page provides all necessary information and clear instructions, making it easy for ABI to understand that she is on the right track.</t>
+Why: After clicking the "New Issue" button, Abi lands on a page specifically designed for creating a new issue. The page is clearly labeled "New Issue" and provides fields for entering the title, type, description, assignee, milestone, labels, and due date. This structured format aligns with Abi's comprehensive information processing style and process-oriented learning style. The presence of a "Create issue" button at the bottom further confirms that she is on the right track and making progress toward her goal. The page provides all the necessary information and fields required to file an issue, making it clear that she is doing the right thing.</t>
         </is>
       </c>
     </row>

--- a/outputs/Lincoln4.xlsx
+++ b/outputs/Lincoln4.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,16 +426,16 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository overview with files and some general information about the project. There is no clear indication or direct link to information about filing an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance.</t>
+Why: The page primarily provides information about the repository and the FLOSScoach project, including technologies used, how to contribute, code style, deployment process, and contact information. There is no explicit mention or clear guidance on how to file an issue. Given Abi's comprehensive information processing style, she would need clear and direct information about filing an issue to consider this a step toward achieving the overall use case. Additionally, Abi's low computer self-efficacy means she might struggle to infer the necessary steps without explicit instructions.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Issues" button on the side panel is clearly labeled, making it straightforward for Abi to understand that clicking it might lead to information about filing an issue. This aligns with Abi's comprehensive information processing style, as she would likely read through the options available on the side panel. Additionally, the clear labeling supports her process-oriented learning style, providing a clear next step without requiring her to tinker or guess.</t>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page does not provide explicit instructions or information about what the "Issues" button does. Given Abi's low computer self-efficacy, she might be hesitant to click on a button without knowing its exact function. Additionally, Abi prefers process-oriented learning and would benefit from step-by-step instructions or clear guidance, which is not provided on this page. Therefore, she might not feel confident enough to take this action.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "Issues" button, Abi lands on a page listing existing issues. While this indicates she is in the right area, the page does not provide explicit information or guidance on how to file a new issue. Given Abi's comprehensive information processing style, she would need clear instructions or a visible link/button that explicitly states how to file a new issue. Additionally, her low computer self-efficacy might make her hesitant to proceed without clear guidance, as she might not feel confident that she is making progress toward her goal.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
+Why: While Abi will land on the issues page, which is a step in the right direction, the page does not provide explicit instructions or comprehensive information on how to file a new issue. Abi's comprehensive information processing style requires clear and detailed guidance, which is not present here. Additionally, her low computer self-efficacy means she might not feel confident in proceeding without explicit instructions. The "New issue" button is visible, but without clear guidance, Abi might not be sure if this is the correct next step. Therefore, she might not feel she is making definite progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "New issue" button is prominently displayed in blue at the top right of the page, making it clear and easy to identify. This aligns with Abi's comprehensive information processing style, as she would likely read through the options available on the page and recognize this as the next step. Additionally, the clear labeling supports her process-oriented learning style, providing a clear next step without requiring her to tinker or guess.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "New issue" button is prominently displayed and clearly labeled, making it evident that clicking it is the next step in filing an issue. This aligns with Abi's motivation to accomplish her task and her comprehensive information processing style, as the button provides a clear and direct action to take. The page is straightforward and not overwhelming, which should help Abi feel confident in taking this action.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: After clicking the "New issue" button, Abi is taken to a page titled "New Issue" with fields to fill out for the title, type, and description of the issue. This page clearly indicates that she is in the right place to file a new issue, providing a straightforward form to complete. This aligns with Abi's comprehensive information processing style, as the page provides all necessary fields and options in a clear and organized manner. Additionally, the structured form supports her process-oriented learning style, guiding her through the steps needed to file an issue without requiring her to tinker or guess.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Upon clicking the "New issue" button, Abi is taken to a page specifically for creating a new issue. The page is clearly labeled "New Issue" and provides fields for the title, type, and description, which are standard components for filing an issue. This clear layout and labeling will help Abi understand that she is on the right track and making progress toward her goal. The page provides all the necessary information and fields required to file an issue, aligning with Abi's comprehensive information processing style.</t>
         </is>
       </c>
     </row>

--- a/outputs/Lincoln4.xlsx
+++ b/outputs/Lincoln4.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page primarily provides information about the repository and the FLOSScoach project, including technologies used, how to contribute, code style, deployment process, and contact information. There is no explicit mention or clear guidance on how to file an issue. Given Abi's comprehensive information processing style, she would need clear and direct information about filing an issue to consider this a step toward achieving the overall use case. Additionally, Abi's low computer self-efficacy means she might struggle to infer the necessary steps without explicit instructions.</t>
+Why: The page shown is a repository page with various files and some information about the project. However, it does not provide any direct or clear information about filing an issue. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, would not likely consider this page as a step toward finding information about filing an issue. The lack of explicit instructions or links related to filing an issue would make ABI feel uncertain and unmotivated to proceed with this subgoal.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page does not provide explicit instructions or information about what the "Issues" button does. Given Abi's low computer self-efficacy, she might be hesitant to click on a button without knowing its exact function. Additionally, Abi prefers process-oriented learning and would benefit from step-by-step instructions or clear guidance, which is not provided on this page. Therefore, she might not feel confident enough to take this action.</t>
+Why: The page does not provide any explicit instructions or information about what the "Issues" button does. Given ABI's low confidence in unfamiliar computing tasks and preference for process-oriented learning, she would likely feel uncertain about clicking the "Issues" button without knowing what it will lead to. The lack of clear guidance or context on the page would make ABI hesitant to take this action.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: While Abi will land on the issues page, which is a step in the right direction, the page does not provide explicit instructions or comprehensive information on how to file a new issue. Abi's comprehensive information processing style requires clear and detailed guidance, which is not present here. Additionally, her low computer self-efficacy means she might not feel confident in proceeding without explicit instructions. The "New issue" button is visible, but without clear guidance, Abi might not be sure if this is the correct next step. Therefore, she might not feel she is making definite progress toward her goal.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking the "Issues" button, ABI lands on a page listing existing issues. While this indicates some progress, the page does not provide explicit information or instructions on how to file a new issue. ABI, who prefers comprehensive information and has low confidence in unfamiliar tasks, might not immediately recognize that she needs to click the "New issue" button to proceed. The lack of clear guidance on this page would make ABI uncertain about whether she is making progress toward her goal and how to proceed further.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "New issue" button is prominently displayed and clearly labeled, making it evident that clicking it is the next step in filing an issue. This aligns with Abi's motivation to accomplish her task and her comprehensive information processing style, as the button provides a clear and direct action to take. The page is straightforward and not overwhelming, which should help Abi feel confident in taking this action.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The "New issue" button is prominently displayed in blue at the top right of the page, making it visually distinct and likely to catch ABI's attention. Given ABI's comprehensive information processing style, she would likely read through the page and notice this button. The label "New issue" is clear and directly related to her goal of filing an issue, providing enough context for ABI to understand that clicking this button is the next step toward achieving her subgoal.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Upon clicking the "New issue" button, Abi is taken to a page specifically for creating a new issue. The page is clearly labeled "New Issue" and provides fields for the title, type, and description, which are standard components for filing an issue. This clear layout and labeling will help Abi understand that she is on the right track and making progress toward her goal. The page provides all the necessary information and fields required to file an issue, aligning with Abi's comprehensive information processing style.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking the "New issue" button, ABI lands on a page titled "New Issue" with clear fields for entering the title, type, and description of the issue. The page is straightforward and provides a clear structure for filing an issue, which aligns with ABI's preference for comprehensive information and process-oriented learning. The presence of the "Create issue" button further confirms that ABI is on the right track and making progress toward her goal. The layout and instructions are clear enough for ABI to understand that she is in the correct place to file an issue and proceed with the task.</t>
         </is>
       </c>
     </row>
